--- a/Install/Parameter_UQ_Repository_V1.0.xlsx
+++ b/Install/Parameter_UQ_Repository_V1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1ED0A-E93D-4815-9047-2B90406E3608}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EE7D9-2FED-44F6-AD73-E899CF603149}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3291" yWindow="3291" windowWidth="24686" windowHeight="13123" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UQ" sheetId="1" r:id="rId1"/>
@@ -997,28 +997,28 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.84375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.07421875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.84375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.4609375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.07421875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" style="17"/>
-    <col min="11" max="11" width="9.84375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="24.07421875" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="8.84375" style="17"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="9.88671875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
     </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
       <c r="B4" s="23" t="s">
         <v>46</v>
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55"/>
       <c r="B5" s="23" t="s">
         <v>46</v>
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55"/>
       <c r="B6" s="23" t="s">
         <v>46</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
       <c r="B7" s="23" t="s">
         <v>46</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
       <c r="B8" s="23" t="s">
         <v>46</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="4" t="s">
         <v>47</v>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="43" t="s">
         <v>47</v>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="43" t="s">
         <v>47</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H11" s="35">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="43" t="s">
         <v>47</v>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H12" s="35">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
       <c r="B13" s="43" t="s">
         <v>47</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H13" s="35">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" s="43" t="s">
         <v>47</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H14" s="35">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" s="43" t="s">
         <v>47</v>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H15" s="35">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="43" t="s">
         <v>47</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H16" s="35">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="43" t="s">
         <v>47</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H17" s="35">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="43" t="s">
         <v>47</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H18" s="35">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="43" t="s">
         <v>47</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H19" s="35">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" s="43" t="s">
         <v>47</v>
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="56"/>
       <c r="B21" s="18" t="s">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>2.8944444444444443E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
         <v>51</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="36" t="s">
         <v>52</v>
@@ -1629,7 +1629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59"/>
       <c r="B24" s="19" t="s">
         <v>50</v>
@@ -1656,7 +1656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>58</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
       <c r="B26" s="36" t="s">
         <v>57</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
       <c r="B27" s="36" t="s">
         <v>59</v>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="36" t="s">
         <v>59</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
       <c r="B29" s="36" t="s">
         <v>60</v>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
       <c r="B30" s="36" t="s">
         <v>60</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
       <c r="B31" s="36" t="s">
         <v>62</v>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="36" t="s">
         <v>63</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
       <c r="B33" s="36" t="s">
         <v>77</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50"/>
       <c r="B34" s="36" t="s">
         <v>77</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50"/>
       <c r="B35" s="36" t="s">
         <v>77</v>
@@ -1955,7 +1955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50"/>
       <c r="B36" s="36" t="s">
         <v>67</v>
@@ -1982,7 +1982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50"/>
       <c r="B37" s="36" t="s">
         <v>67</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50"/>
       <c r="B38" s="36" t="s">
         <v>67</v>
@@ -2036,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="36" t="s">
         <v>67</v>
@@ -2063,7 +2063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50"/>
       <c r="B40" s="36" t="s">
         <v>72</v>
@@ -2090,7 +2090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50"/>
       <c r="B41" s="46" t="s">
         <v>72</v>
@@ -2117,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51"/>
       <c r="B42" s="19" t="s">
         <v>75</v>
@@ -2144,7 +2144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="48" t="s">
         <v>91</v>
@@ -2254,12 +2254,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2275,27 +2275,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -2313,127 +2313,127 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="233.3046875" customWidth="1"/>
+    <col min="1" max="1" width="233.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
     </row>
   </sheetData>
